--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
   <si>
     <t>Company_Name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>latestsupplierauto01@yopmail.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -877,10 +880,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1205,14 +1208,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="10" customWidth="1"/>
     <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -1240,7 +1243,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1257,7 +1260,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1276,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -1284,13 +1287,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>99</v>
@@ -1302,21 +1305,21 @@
         <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>99</v>
@@ -1328,21 +1331,21 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>99</v>
@@ -1354,21 +1357,21 @@
         <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>99</v>
@@ -1380,21 +1383,21 @@
         <v>35</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>99</v>
@@ -1406,21 +1409,21 @@
         <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>99</v>
@@ -1432,10 +1435,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1483,7 +1486,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1500,23 +1503,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto01@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1545,270 +1556,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1837,240 +1848,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,52 +61,16 @@
     <t>Password</t>
   </si>
   <si>
+    <t>latestsupplierauto02</t>
+  </si>
+  <si>
+    <t>latestsupplierauto02@yopmail.com</t>
+  </si>
+  <si>
     <t>latestsupplierauto01</t>
   </si>
   <si>
-    <t>latestsupplierauto01@yopmail.com</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>latestsupplierauto02</t>
-  </si>
-  <si>
-    <t>latestsupplierauto02@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto03</t>
-  </si>
-  <si>
-    <t>latestsupplierauto03@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto04</t>
-  </si>
-  <si>
-    <t>latestsupplierauto04@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto05</t>
-  </si>
-  <si>
-    <t>latestsupplierauto05@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto06</t>
-  </si>
-  <si>
-    <t>latestsupplierauto06@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto07</t>
-  </si>
-  <si>
-    <t>latestsupplierauto07@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -867,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -880,7 +844,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1208,14 +1171,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
     <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -1243,7 +1206,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1260,11 +1223,11 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>99</v>
@@ -1275,205 +1238,97 @@
       <c r="F2">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>99</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>99</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>35</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2"/>
+      <c r="C3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2"/>
+      <c r="C4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2"/>
+      <c r="C5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2"/>
+      <c r="C6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2"/>
+      <c r="C8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="latestsupplierauto02@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="latestsupplierauto03@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="latestsupplierauto04@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="latestsupplierauto05@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="latestsupplierauto06@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="latestsupplierauto07@yopmail.com"/>
-    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto02@yopmail.com" tooltip="mailto:latestsupplierauto02@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1486,7 +1341,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1503,31 +1358,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto01@yopmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1556,270 +1403,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1848,240 +1695,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1253,7 +1253,6 @@
       <c r="C3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
@@ -1262,7 +1261,6 @@
       <c r="C4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
@@ -1271,7 +1269,6 @@
       <c r="C5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
@@ -1280,7 +1277,6 @@
       <c r="C6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
@@ -1289,7 +1285,6 @@
       <c r="C7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
@@ -1298,7 +1293,6 @@
       <c r="C8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="17028" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17028" windowHeight="7944"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
   <si>
     <t>Company_Name</t>
   </si>
@@ -1171,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1937,8 +1936,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1961,10 +1960,21 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto02@yopmail.com" tooltip="mailto:latestsupplierauto02@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,16 +61,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>latestsupplierauto02</t>
-  </si>
-  <si>
-    <t>latestsupplierauto02@yopmail.com</t>
-  </si>
-  <si>
-    <t>latestsupplierauto01</t>
+    <t>firstdata02</t>
+  </si>
+  <si>
+    <t>firstdata02@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>firstdata03</t>
+  </si>
+  <si>
+    <t>firstdata03@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -193,7 +196,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,14 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,12 +704,12 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,10 +834,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -844,11 +847,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,15 +1174,15 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="10" customWidth="1"/>
     <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -1206,7 +1210,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1223,106 +1227,125 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8">
         <v>99</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>100</v>
       </c>
       <c r="F2">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>12</v>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>99</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="2"/>
+      <c r="B4" s="8"/>
       <c r="C4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="2"/>
+      <c r="B5" s="8"/>
       <c r="C5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="2"/>
+      <c r="B6" s="8"/>
       <c r="C6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="2"/>
+      <c r="B7" s="8"/>
       <c r="C7"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="2"/>
+      <c r="B8" s="8"/>
       <c r="C8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto02@yopmail.com" tooltip="mailto:latestsupplierauto02@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="firstdata02@yopmail.com" tooltip="mailto:firstdata02@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="firstdata03@yopmail.com" tooltip="mailto:firstdata03@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1352,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1397,270 +1420,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1689,240 +1712,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1936,14 +1959,14 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="28.9722222222222" customWidth="1"/>
+    <col min="2" max="2" width="35.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1952,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -1960,21 +1983,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="latestsupplierauto02@yopmail.com" tooltip="mailto:latestsupplierauto02@yopmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="17028" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1174,7 +1175,7 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17028" windowHeight="7944"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
   <si>
     <t>Company_Name</t>
   </si>
@@ -62,19 +61,55 @@
     <t>Password</t>
   </si>
   <si>
-    <t>firstdata02</t>
-  </si>
-  <si>
-    <t>firstdata02@yopmail.com</t>
+    <t>12mayregression01</t>
+  </si>
+  <si>
+    <t>12mayregression01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>firstdata03</t>
-  </si>
-  <si>
-    <t>firstdata03@yopmail.com</t>
+    <t>12mayregression02</t>
+  </si>
+  <si>
+    <t>12mayregression02@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression03</t>
+  </si>
+  <si>
+    <t>12mayregression03@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression04</t>
+  </si>
+  <si>
+    <t>12mayregression04@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression05</t>
+  </si>
+  <si>
+    <t>12mayregression05@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression06</t>
+  </si>
+  <si>
+    <t>12mayregression06@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression07</t>
+  </si>
+  <si>
+    <t>12mayregression07@yopmail.com</t>
+  </si>
+  <si>
+    <t>12mayregression08</t>
+  </si>
+  <si>
+    <t>12mayregression08@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -1176,7 +1211,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1279,51 +1314,161 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="8"/>
-      <c r="C4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="8"/>
-      <c r="C5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="8"/>
-      <c r="C6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="8"/>
-      <c r="C7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="8"/>
-      <c r="C8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="13"/>
-      <c r="C9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>99</v>
+      </c>
+      <c r="E4" s="8">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>99</v>
+      </c>
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8">
+        <v>99</v>
+      </c>
+      <c r="E8" s="8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8">
+        <v>99</v>
+      </c>
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="13"/>
@@ -1345,8 +1490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="firstdata02@yopmail.com" tooltip="mailto:firstdata02@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="firstdata03@yopmail.com" tooltip="mailto:firstdata03@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="12mayregression01@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="12mayregression02@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="12mayregression03@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="12mayregression04@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="12mayregression05@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="12mayregression06@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="12mayregression07@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="12mayregression08@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1376,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1421,270 +1572,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1713,240 +1864,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -61,55 +61,55 @@
     <t>Password</t>
   </si>
   <si>
-    <t>12mayregression01</t>
-  </si>
-  <si>
-    <t>12mayregression01@yopmail.com</t>
+    <t>27mayregression01</t>
+  </si>
+  <si>
+    <t>27mayregression01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12mayregression02</t>
-  </si>
-  <si>
-    <t>12mayregression02@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression03</t>
-  </si>
-  <si>
-    <t>12mayregression03@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression04</t>
-  </si>
-  <si>
-    <t>12mayregression04@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression05</t>
-  </si>
-  <si>
-    <t>12mayregression05@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression06</t>
-  </si>
-  <si>
-    <t>12mayregression06@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression07</t>
-  </si>
-  <si>
-    <t>12mayregression07@yopmail.com</t>
-  </si>
-  <si>
-    <t>12mayregression08</t>
-  </si>
-  <si>
-    <t>12mayregression08@yopmail.com</t>
+    <t>27mayregression02</t>
+  </si>
+  <si>
+    <t>27mayregression02@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression03</t>
+  </si>
+  <si>
+    <t>27mayregression03@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression04</t>
+  </si>
+  <si>
+    <t>27mayregression04@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression05</t>
+  </si>
+  <si>
+    <t>27mayregression05@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression06</t>
+  </si>
+  <si>
+    <t>27mayregression06@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression07</t>
+  </si>
+  <si>
+    <t>27mayregression07@yopmail.com</t>
+  </si>
+  <si>
+    <t>27mayregression08</t>
+  </si>
+  <si>
+    <t>27mayregression08@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1490,14 +1490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="12mayregression01@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="12mayregression02@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="12mayregression03@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="12mayregression04@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="12mayregression05@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="12mayregression06@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="12mayregression07@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
-    <hyperlink ref="B9" r:id="rId1" display="12mayregression08@yopmail.com" tooltip="mailto:12mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="27mayregression01@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="27mayregression02@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>27mayregression01</t>
-  </si>
-  <si>
-    <t>27mayregression01@yopmail.com</t>
+    <t>27mayregression02</t>
+  </si>
+  <si>
+    <t>27mayregression02@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>27mayregression02</t>
-  </si>
-  <si>
-    <t>27mayregression02@yopmail.com</t>
   </si>
   <si>
     <t>27mayregression03</t>
@@ -1208,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1259,7 +1253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1283,9 +1277,6 @@
       </c>
       <c r="H2" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1444,31 +1435,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8">
-        <v>99</v>
-      </c>
-      <c r="E9" s="8">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="13"/>
@@ -1482,22 +1453,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="13"/>
-      <c r="C12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="27mayregression01@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="27mayregression02@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B9" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="27mayregression02@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1527,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1572,270 +1536,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1864,240 +1828,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>27mayregression02</t>
-  </si>
-  <si>
-    <t>27mayregression02@yopmail.com</t>
+    <t>27mayregression03</t>
+  </si>
+  <si>
+    <t>27mayregression03@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>27mayregression03</t>
-  </si>
-  <si>
-    <t>27mayregression03@yopmail.com</t>
   </si>
   <si>
     <t>27mayregression04</t>
@@ -1202,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1409,31 +1403,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8">
-        <v>99</v>
-      </c>
-      <c r="E8" s="8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>35</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="13"/>
@@ -1447,21 +1421,14 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="13"/>
-      <c r="C11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="27mayregression02@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1491,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1536,270 +1503,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1828,240 +1795,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,25 +61,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>27mayregression03</t>
-  </si>
-  <si>
-    <t>27mayregression03@yopmail.com</t>
+    <t>27mayregression05</t>
+  </si>
+  <si>
+    <t>27mayregression05@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>27mayregression04</t>
-  </si>
-  <si>
-    <t>27mayregression04@yopmail.com</t>
-  </si>
-  <si>
-    <t>27mayregression05</t>
-  </si>
-  <si>
-    <t>27mayregression05@yopmail.com</t>
   </si>
   <si>
     <t>27mayregression06</t>
@@ -1196,13 +1184,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
@@ -1351,57 +1339,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8">
-        <v>99</v>
-      </c>
-      <c r="E6" s="8">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8">
-        <v>99</v>
-      </c>
-      <c r="E7" s="8">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="13"/>
@@ -1409,26 +1357,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="13"/>
-      <c r="C9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="13"/>
-      <c r="C10"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="27mayregression03@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="27mayregression04@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1458,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1503,270 +1437,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1795,240 +1729,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>27mayregression05</t>
-  </si>
-  <si>
-    <t>27mayregression05@yopmail.com</t>
+    <t>27mayregression06</t>
+  </si>
+  <si>
+    <t>27mayregression06@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>27mayregression06</t>
-  </si>
-  <si>
-    <t>27mayregression06@yopmail.com</t>
   </si>
   <si>
     <t>27mayregression07</t>
@@ -1184,13 +1178,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
@@ -1313,31 +1307,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8">
-        <v>99</v>
-      </c>
-      <c r="E5" s="8">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="13"/>
@@ -1351,18 +1325,11 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="13"/>
-      <c r="C8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="27mayregression05@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1392,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1437,270 +1404,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1729,240 +1696,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,25 +61,37 @@
     <t>Password</t>
   </si>
   <si>
-    <t>27mayregression06</t>
-  </si>
-  <si>
-    <t>27mayregression06@yopmail.com</t>
+    <t>28regress01</t>
+  </si>
+  <si>
+    <t>28regress01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>27mayregression07</t>
-  </si>
-  <si>
-    <t>27mayregression07@yopmail.com</t>
-  </si>
-  <si>
-    <t>27mayregression08</t>
-  </si>
-  <si>
-    <t>27mayregression08@yopmail.com</t>
+    <t>28regress02</t>
+  </si>
+  <si>
+    <t>28regress02@yopmail.com</t>
+  </si>
+  <si>
+    <t>28regress03</t>
+  </si>
+  <si>
+    <t>28regress03@yopmail.com</t>
+  </si>
+  <si>
+    <t>28regress04</t>
+  </si>
+  <si>
+    <t>28regress04@yopmail.com</t>
+  </si>
+  <si>
+    <t>28regress05</t>
+  </si>
+  <si>
+    <t>28regress05@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -191,7 +203,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +214,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +268,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,64 +715,64 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,10 +781,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,10 +793,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,10 +805,10 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,10 +817,10 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,10 +829,10 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,14 +841,14 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -853,12 +858,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,17 +1181,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
     <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -1216,7 +1219,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1233,103 +1236,85 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="2">
         <v>99</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
-        <v>99</v>
-      </c>
-      <c r="E3" s="8">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
-        <v>99</v>
-      </c>
-      <c r="E4" s="8">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="13"/>
-      <c r="C5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="13"/>
-      <c r="C6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="13"/>
-      <c r="C7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="27mayregression06@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="27mayregression07@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="27mayregression08@yopmail.com" tooltip="mailto:27mayregression01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="28regress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="28regress02@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="28regress03@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="28regress04@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="28regress05@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1359,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="8"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1404,270 +1389,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1696,240 +1681,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1929,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1959,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -61,37 +61,37 @@
     <t>Password</t>
   </si>
   <si>
-    <t>28regress01</t>
-  </si>
-  <si>
-    <t>28regress01@yopmail.com</t>
+    <t>29regress01</t>
+  </si>
+  <si>
+    <t>29regress01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>28regress02</t>
-  </si>
-  <si>
-    <t>28regress02@yopmail.com</t>
-  </si>
-  <si>
-    <t>28regress03</t>
-  </si>
-  <si>
-    <t>28regress03@yopmail.com</t>
-  </si>
-  <si>
-    <t>28regress04</t>
-  </si>
-  <si>
-    <t>28regress04@yopmail.com</t>
-  </si>
-  <si>
-    <t>28regress05</t>
-  </si>
-  <si>
-    <t>28regress05@yopmail.com</t>
+    <t>29regress02</t>
+  </si>
+  <si>
+    <t>29regress02@yopmail.com</t>
+  </si>
+  <si>
+    <t>29regress03</t>
+  </si>
+  <si>
+    <t>29regress03@yopmail.com</t>
+  </si>
+  <si>
+    <t>29regress04</t>
+  </si>
+  <si>
+    <t>29regress04@yopmail.com</t>
+  </si>
+  <si>
+    <t>29regress05</t>
+  </si>
+  <si>
+    <t>29regress05@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -1310,11 +1310,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="28regress01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="28regress02@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="28regress03@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="28regress04@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="28regress05@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="29regress01@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="29regress02@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="29regress03@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="29regress04@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="29regress05@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>Company_Name</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>29regress01</t>
-  </si>
-  <si>
-    <t>29regress01@yopmail.com</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>29regress02</t>
@@ -203,7 +194,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,12 +250,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -718,61 +703,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,10 +766,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,10 +778,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,10 +790,10 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,10 +802,10 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,10 +814,10 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,11 +826,11 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -861,7 +846,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,13 +1165,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
@@ -1232,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1242,79 +1226,52 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>99</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="29regress01@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="29regress02@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="29regress03@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="29regress04@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="29regress05@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="29regress02@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="29regress03@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="29regress04@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="29regress05@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1344,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1389,270 +1346,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1681,240 +1638,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>Company_Name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>29regress02@yopmail.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>29regress03</t>
@@ -194,7 +197,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +253,19 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -703,61 +719,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,10 +782,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,10 +794,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,10 +806,10 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,10 +818,10 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,10 +830,10 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,11 +842,11 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -846,6 +862,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,7 +1186,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1216,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1226,44 +1244,98 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="11">
+        <v>99</v>
+      </c>
+      <c r="E2" s="11">
+        <v>100</v>
+      </c>
+      <c r="F2" s="12">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11">
+        <v>99</v>
+      </c>
+      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="11">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="D5" s="2">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1301,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1346,270 +1418,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1638,240 +1710,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>29regress02</t>
-  </si>
-  <si>
-    <t>29regress02@yopmail.com</t>
+    <t>29regress03</t>
+  </si>
+  <si>
+    <t>29regress03@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>29regress03</t>
-  </si>
-  <si>
-    <t>29regress03@yopmail.com</t>
   </si>
   <si>
     <t>29regress04</t>
@@ -1183,13 +1177,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
@@ -1296,10 +1290,10 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="2">
         <v>99</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="12">
@@ -1312,38 +1306,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="12">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="29regress02@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="29regress03@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="29regress04@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="29regress05@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="29regress03@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="29regress04@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="29regress05@yopmail.com" tooltip="mailto:29regress01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1373,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1418,270 +1385,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1710,240 +1677,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>

--- a/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="17028" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:I4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
